--- a/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B5_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>266139</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>231043</v>
+        <v>235482</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>293655</v>
+        <v>297358</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6526329290467403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5665703929620141</v>
+        <v>0.5774546138933839</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7201071092908398</v>
+        <v>0.7291897354883059</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>114</v>
@@ -762,19 +762,19 @@
         <v>196887</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171806</v>
+        <v>170460</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>222261</v>
+        <v>223000</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5431181806797928</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4739311357070533</v>
+        <v>0.4702183474807794</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6131130843658094</v>
+        <v>0.6151533073333579</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>227</v>
@@ -783,19 +783,19 @@
         <v>463026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>421667</v>
+        <v>422878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>502275</v>
+        <v>503651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6010943751241903</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5474030133801902</v>
+        <v>0.5489748635934623</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.652047476029448</v>
+        <v>0.6538338549022916</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>116710</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89690</v>
+        <v>87508</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147822</v>
+        <v>145363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.286198200661772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2199394762860125</v>
+        <v>0.2145903309619819</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3624924861105069</v>
+        <v>0.3564630338006086</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>62</v>
@@ -833,19 +833,19 @@
         <v>113983</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>91033</v>
+        <v>90826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>139420</v>
+        <v>139521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3144242859124174</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2511172904090622</v>
+        <v>0.2505457223452422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3845944446478572</v>
+        <v>0.3848726995576842</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>110</v>
@@ -854,19 +854,19 @@
         <v>230692</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>194261</v>
+        <v>192996</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>270431</v>
+        <v>267661</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2994816317832003</v>
+        <v>0.2994816317832001</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2521875214867882</v>
+        <v>0.250544708828774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3510695755759687</v>
+        <v>0.3474746111563063</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>20134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9699</v>
+        <v>8748</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40713</v>
+        <v>38359</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0493733925586517</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02378429734322537</v>
+        <v>0.0214525628107765</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09983747069971124</v>
+        <v>0.09406462213356369</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -904,19 +904,19 @@
         <v>46579</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31495</v>
+        <v>31083</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64268</v>
+        <v>65135</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1284890723631937</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08687872341251203</v>
+        <v>0.08574218520653643</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1772849273878189</v>
+        <v>0.1796758933843259</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -925,19 +925,19 @@
         <v>66713</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48288</v>
+        <v>46143</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>91570</v>
+        <v>90261</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0866058912908154</v>
+        <v>0.08660589129081538</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0626868707994606</v>
+        <v>0.05990212519681876</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1188747702392917</v>
+        <v>0.1171751809051815</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>4810</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1439</v>
+        <v>1492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13274</v>
+        <v>13238</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01179547773283609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003529314723759664</v>
+        <v>0.003657519934199995</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03255090221412967</v>
+        <v>0.03246173225720739</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -975,19 +975,19 @@
         <v>5064</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13732</v>
+        <v>13893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01396846104459592</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0</v>
+        <v>0.004419794033037219</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03788109954187269</v>
+        <v>0.03832365874913217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -996,19 +996,19 @@
         <v>9874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3335</v>
+        <v>3418</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21524</v>
+        <v>20256</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01281810180179424</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004329839486234605</v>
+        <v>0.004436935367377381</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02794270815280438</v>
+        <v>0.02629607441381449</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>230127</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>201919</v>
+        <v>203377</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>258335</v>
+        <v>257966</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4825570840930465</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.42340855801291</v>
+        <v>0.426464793880022</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5417077998474373</v>
+        <v>0.5409334353341692</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>181</v>
@@ -1121,19 +1121,19 @@
         <v>206217</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>183382</v>
+        <v>182514</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>228469</v>
+        <v>228356</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4115430738607554</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3659710505148922</v>
+        <v>0.3642391983768186</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4559509505444769</v>
+        <v>0.4557258247451429</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>320</v>
@@ -1142,19 +1142,19 @@
         <v>436344</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>392509</v>
+        <v>400160</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>469435</v>
+        <v>473998</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.4461717168483767</v>
+        <v>0.4461717168483768</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4013494943053666</v>
+        <v>0.4091725755153711</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4800083440491595</v>
+        <v>0.4846740968856874</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>197534</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170962</v>
+        <v>173067</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>225977</v>
+        <v>225747</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4142136185484006</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3584945462049399</v>
+        <v>0.362906677560828</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4738555538160626</v>
+        <v>0.4733725799829899</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>199</v>
@@ -1192,19 +1192,19 @@
         <v>214290</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>192919</v>
+        <v>191753</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>236746</v>
+        <v>237051</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4276533249064572</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3850046637400919</v>
+        <v>0.3826769893601119</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4724690001196662</v>
+        <v>0.4730772256185805</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>328</v>
@@ -1213,19 +1213,19 @@
         <v>411824</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>379770</v>
+        <v>377693</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>449866</v>
+        <v>450140</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4210997055317837</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3883231729721031</v>
+        <v>0.3861998832742606</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4599982713749438</v>
+        <v>0.460278948546314</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>33487</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21865</v>
+        <v>22251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48517</v>
+        <v>50153</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.07021903082231246</v>
+        <v>0.07021903082231244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04584983535797001</v>
+        <v>0.04665756486507501</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1017354749007753</v>
+        <v>0.1051660021400945</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>65</v>
@@ -1263,19 +1263,19 @@
         <v>64224</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48154</v>
+        <v>51208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>81099</v>
+        <v>81622</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1281700949234441</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09609998911507994</v>
+        <v>0.1021951577248406</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1618481543670616</v>
+        <v>0.1628903428271057</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>89</v>
@@ -1284,19 +1284,19 @@
         <v>97711</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>79354</v>
+        <v>78424</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>119749</v>
+        <v>119955</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.09991135129036952</v>
+        <v>0.09991135129036953</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0811415328618206</v>
+        <v>0.08019080449210861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1224465609254452</v>
+        <v>0.1226568849033002</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>15742</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8058</v>
+        <v>7751</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28362</v>
+        <v>28411</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03301026653624048</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01689715642689201</v>
+        <v>0.01625250697043988</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05947185367960728</v>
+        <v>0.05957534734363676</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -1334,19 +1334,19 @@
         <v>16352</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>9596</v>
+        <v>9467</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25853</v>
+        <v>25778</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03263350630934326</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01915040228683897</v>
+        <v>0.01889356293950877</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.05159385445726763</v>
+        <v>0.05144462738840727</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -1355,19 +1355,19 @@
         <v>32094</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>21091</v>
+        <v>20756</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>47392</v>
+        <v>47162</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03281722632947003</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0215657929785222</v>
+        <v>0.02122303892666501</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04845907839964991</v>
+        <v>0.04822451229307155</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>304159</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>276054</v>
+        <v>277072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>331436</v>
+        <v>331274</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4899176183327447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4446477450046317</v>
+        <v>0.4462879956848502</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5338527484289567</v>
+        <v>0.5335917825133566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>306</v>
@@ -1480,19 +1480,19 @@
         <v>238741</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>217408</v>
+        <v>217591</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>259235</v>
+        <v>259789</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3837425136530194</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3494519556236663</v>
+        <v>0.3497458742423005</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4166830919116154</v>
+        <v>0.4175734635239483</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>562</v>
@@ -1501,19 +1501,19 @@
         <v>542900</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>507573</v>
+        <v>507901</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>575392</v>
+        <v>574457</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4367744392247139</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4083534132153159</v>
+        <v>0.4086170894599608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4629149725095267</v>
+        <v>0.4621622716143328</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>225868</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>198673</v>
+        <v>200328</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>249818</v>
+        <v>252799</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3638115049008472</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3200080487486385</v>
+        <v>0.3226733660899753</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4023891181251447</v>
+        <v>0.407189866634509</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>388</v>
@@ -1551,19 +1551,19 @@
         <v>280009</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>258883</v>
+        <v>260442</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>301530</v>
+        <v>303473</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.4500743856860174</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.4161174473526636</v>
+        <v>0.4186242728367434</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4846664782170158</v>
+        <v>0.4877889750111654</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>597</v>
@@ -1572,19 +1572,19 @@
         <v>505876</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>475270</v>
+        <v>475284</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>537919</v>
+        <v>539598</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.4069881397416546</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3823647420770185</v>
+        <v>0.3823759333924507</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4327666541989459</v>
+        <v>0.4341175601100422</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>69505</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54050</v>
+        <v>54125</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87299</v>
+        <v>86409</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1119534005999273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08706053971921097</v>
+        <v>0.08718041826704845</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1406155831351288</v>
+        <v>0.1391816536906449</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>126</v>
@@ -1622,19 +1622,19 @@
         <v>83417</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>70720</v>
+        <v>69245</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>98364</v>
+        <v>97829</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1340805642774056</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1136728004370207</v>
+        <v>0.1113015813963749</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1581061698962315</v>
+        <v>0.157246300201456</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -1643,19 +1643,19 @@
         <v>152922</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>132405</v>
+        <v>131804</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>175170</v>
+        <v>175144</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1230285751995855</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1065225429179253</v>
+        <v>0.1060392274055739</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1409282961832</v>
+        <v>0.1409070545597505</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>21306</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12698</v>
+        <v>12253</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33648</v>
+        <v>35017</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03431747616648097</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02045299532543505</v>
+        <v>0.01973638135152958</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05419801356512686</v>
+        <v>0.05640226185524288</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -1693,19 +1693,19 @@
         <v>19972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13988</v>
+        <v>13039</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29312</v>
+        <v>29509</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03210253638355762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02248447731695128</v>
+        <v>0.0209578775777561</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04711542914895884</v>
+        <v>0.04743180241190192</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -1714,19 +1714,19 @@
         <v>41278</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29819</v>
+        <v>30612</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>55773</v>
+        <v>55886</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03320884583404603</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02398971292594182</v>
+        <v>0.02462822849561597</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0448706975792448</v>
+        <v>0.04496128517630273</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>263394</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>238424</v>
+        <v>237154</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>289612</v>
+        <v>291828</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3759461856032149</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3403053768806627</v>
+        <v>0.3384934853569188</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4133665529900931</v>
+        <v>0.4165303746999561</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>312</v>
@@ -1839,19 +1839,19 @@
         <v>216506</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>195574</v>
+        <v>197606</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>236528</v>
+        <v>235882</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2954529859710056</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.266888558693658</v>
+        <v>0.2696614719086516</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3227753639790444</v>
+        <v>0.3218949691400318</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>546</v>
@@ -1860,19 +1860,19 @@
         <v>479900</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>448521</v>
+        <v>450161</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>510296</v>
+        <v>513254</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3347961823075113</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3129048276254521</v>
+        <v>0.3140490399282405</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3560016816393796</v>
+        <v>0.3580650914830151</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>290932</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261005</v>
+        <v>259559</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>316021</v>
+        <v>318719</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4152507097742258</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3725353638699869</v>
+        <v>0.3704715035309172</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4510614166552968</v>
+        <v>0.4549122700830953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>541</v>
@@ -1910,19 +1910,19 @@
         <v>339657</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>316380</v>
+        <v>318656</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>361179</v>
+        <v>362427</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4635097789603315</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4317458739521767</v>
+        <v>0.4348516006840774</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4928800131209771</v>
+        <v>0.4945836483658522</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>825</v>
@@ -1931,19 +1931,19 @@
         <v>630588</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>598210</v>
+        <v>595332</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>664561</v>
+        <v>667514</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4399218728678742</v>
+        <v>0.4399218728678743</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4173338117637573</v>
+        <v>0.4153260139540256</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.463622074004602</v>
+        <v>0.4656825788799229</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>122476</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>103364</v>
+        <v>104295</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>144126</v>
+        <v>141852</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1748119900512719</v>
+        <v>0.1748119900512718</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1475324231613868</v>
+        <v>0.1488620223967939</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2057136041439578</v>
+        <v>0.2024676553145035</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>224</v>
@@ -1981,19 +1981,19 @@
         <v>138237</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>121638</v>
+        <v>122019</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>156003</v>
+        <v>155693</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1886440895684053</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1659923737558978</v>
+        <v>0.1665119589774764</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2128879374799668</v>
+        <v>0.2124645643622375</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>350</v>
@@ -2002,19 +2002,19 @@
         <v>260713</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>236647</v>
+        <v>235707</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>290820</v>
+        <v>287096</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1818832823258652</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1650939134334513</v>
+        <v>0.1644377665192346</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2028871187967617</v>
+        <v>0.2002885305753786</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>23815</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15542</v>
+        <v>15512</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>37107</v>
+        <v>36624</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03399111457128741</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02218336049594864</v>
+        <v>0.02214055807294407</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0529632792477723</v>
+        <v>0.05227366978290324</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -2052,19 +2052,19 @@
         <v>38393</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29695</v>
+        <v>29466</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>48813</v>
+        <v>48583</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05239314550025746</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04052262008002647</v>
+        <v>0.04021058028485398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06661239906259878</v>
+        <v>0.06629836407513043</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>79</v>
@@ -2073,19 +2073,19 @@
         <v>62208</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>49427</v>
+        <v>49916</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77885</v>
+        <v>77139</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.04339866249874917</v>
+        <v>0.04339866249874918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03448242015653263</v>
+        <v>0.03482315237484946</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05433570052606268</v>
+        <v>0.05381515580156192</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>197853</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>174407</v>
+        <v>173553</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>220178</v>
+        <v>221077</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3250140409896675</v>
+        <v>0.3250140409896674</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2864986507799377</v>
+        <v>0.2850968746216731</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3616879097238076</v>
+        <v>0.3631638261999964</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>237</v>
@@ -2198,19 +2198,19 @@
         <v>151107</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>134509</v>
+        <v>136431</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>169826</v>
+        <v>168745</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2481826218475735</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2209205525143093</v>
+        <v>0.2240778137954903</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2789261280911374</v>
+        <v>0.2771512992429163</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>443</v>
@@ -2219,19 +2219,19 @@
         <v>348960</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>319993</v>
+        <v>320437</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>375564</v>
+        <v>377752</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2865950543401818</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2628049478397781</v>
+        <v>0.2631692540766539</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3084440069767456</v>
+        <v>0.3102413841704736</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>258170</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>233240</v>
+        <v>235480</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>283690</v>
+        <v>280409</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.4240972347191578</v>
+        <v>0.4240972347191577</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3831446128556149</v>
+        <v>0.3868248165000338</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4660190710938565</v>
+        <v>0.4606296981118822</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>425</v>
@@ -2269,19 +2269,19 @@
         <v>259858</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>243090</v>
+        <v>239550</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>280182</v>
+        <v>276814</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4267981189033467</v>
+        <v>0.4267981189033468</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3992577540423358</v>
+        <v>0.3934431536131915</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4601783235028564</v>
+        <v>0.4546467508789716</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>705</v>
@@ -2290,19 +2290,19 @@
         <v>518028</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>485617</v>
+        <v>487750</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>546522</v>
+        <v>549247</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4254477920116406</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3988290340423968</v>
+        <v>0.4005808179194441</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.448849416746101</v>
+        <v>0.4510871771409817</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>121875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>104881</v>
+        <v>103670</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>141874</v>
+        <v>141329</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2002048549114429</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1722885841953487</v>
+        <v>0.1702990914007351</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2330575897077484</v>
+        <v>0.2321619994068115</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>273</v>
@@ -2340,19 +2340,19 @@
         <v>156200</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>139803</v>
+        <v>139487</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>172873</v>
+        <v>172001</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2565476158555781</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2296155068956759</v>
+        <v>0.2290968893919056</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2839319239436677</v>
+        <v>0.2824992255729215</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>417</v>
@@ -2361,19 +2361,19 @@
         <v>278075</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>253291</v>
+        <v>254201</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>302960</v>
+        <v>303433</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2283786385624329</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2080233629747036</v>
+        <v>0.2087710907828306</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2488157830575916</v>
+        <v>0.2492044441697652</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>30854</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>20651</v>
+        <v>22270</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>43203</v>
+        <v>43494</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.05068386937973184</v>
+        <v>0.05068386937973183</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03392324296836388</v>
+        <v>0.03658337084840987</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0709696306158735</v>
+        <v>0.07144832155625723</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>67</v>
@@ -2411,19 +2411,19 @@
         <v>41689</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>32243</v>
+        <v>32997</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>51730</v>
+        <v>52760</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.06847164339350156</v>
+        <v>0.06847164339350159</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05295667619123635</v>
+        <v>0.05419572240624026</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08496231683201878</v>
+        <v>0.08665422477308521</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>99</v>
@@ -2432,19 +2432,19 @@
         <v>72543</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>58966</v>
+        <v>58756</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>88040</v>
+        <v>88258</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05957851508574451</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04842797429467071</v>
+        <v>0.04825495827296217</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07230599981632156</v>
+        <v>0.07248514308063456</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>117130</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>104012</v>
+        <v>101576</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>134587</v>
+        <v>132834</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.289364656220931</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2569566077887606</v>
+        <v>0.2509381245948162</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3324913769442594</v>
+        <v>0.3281598009373765</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>186</v>
@@ -2557,19 +2557,19 @@
         <v>100437</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>88727</v>
+        <v>88383</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>115096</v>
+        <v>113326</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2292221063818977</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.202497378463867</v>
+        <v>0.2017101686187169</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2626761897235249</v>
+        <v>0.258637363021974</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>345</v>
@@ -2578,19 +2578,19 @@
         <v>217568</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>194867</v>
+        <v>198571</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>237400</v>
+        <v>239260</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2581025199234197</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2311727918849895</v>
+        <v>0.2355667395357572</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2816301443754242</v>
+        <v>0.2838364526071542</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>173129</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>158000</v>
+        <v>156718</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>190356</v>
+        <v>189161</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.4277075774318605</v>
+        <v>0.4277075774318604</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3903305074858588</v>
+        <v>0.3871646213123409</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4702655475805182</v>
+        <v>0.4673137143580603</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>335</v>
@@ -2628,19 +2628,19 @@
         <v>182027</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>167673</v>
+        <v>166995</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>198205</v>
+        <v>196648</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.415429998054882</v>
+        <v>0.4154299980548819</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3826692505204554</v>
+        <v>0.3811223582074875</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.452351305825171</v>
+        <v>0.4487984244520931</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>578</v>
@@ -2649,19 +2649,19 @@
         <v>355157</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>332185</v>
+        <v>333663</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>380761</v>
+        <v>376252</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4213256837324099</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3940735989690692</v>
+        <v>0.3958268763619325</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4516995953304079</v>
+        <v>0.4463514022877712</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>98021</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>83836</v>
+        <v>84580</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>112148</v>
+        <v>114154</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2421554926047718</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2071141359465648</v>
+        <v>0.2089510978291544</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2770572399122403</v>
+        <v>0.2820112259591817</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>237</v>
@@ -2699,19 +2699,19 @@
         <v>119576</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>105640</v>
+        <v>106959</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>132689</v>
+        <v>133442</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2729017311508917</v>
+        <v>0.2729017311508916</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2410957264134687</v>
+        <v>0.2441054924517231</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3028279981186517</v>
+        <v>0.3045470794554388</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>378</v>
@@ -2720,19 +2720,19 @@
         <v>217597</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>195756</v>
+        <v>195628</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>237648</v>
+        <v>237546</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2581374072831011</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2322272158696799</v>
+        <v>0.2320751719144721</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2819243878358765</v>
+        <v>0.2818031944324537</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>16504</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>10359</v>
+        <v>10710</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>23859</v>
+        <v>24042</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.04077227374243672</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.02559115804815414</v>
+        <v>0.02645881056241383</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05894249729438735</v>
+        <v>0.05939365999780174</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>67</v>
@@ -2770,19 +2770,19 @@
         <v>36125</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>28285</v>
+        <v>29085</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44487</v>
+        <v>46647</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08244616441232862</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06455420357992592</v>
+        <v>0.06637899421219898</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.101530293549667</v>
+        <v>0.1064604147545164</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>91</v>
@@ -2791,19 +2791,19 @@
         <v>52629</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42867</v>
+        <v>42602</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>64648</v>
+        <v>63735</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.06243438906106931</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.05085294046979143</v>
+        <v>0.05053936413662351</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.07669220644112565</v>
+        <v>0.07560972934808284</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>60760</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>49787</v>
+        <v>50105</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>73312</v>
+        <v>74708</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1986340044582605</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1627639201327445</v>
+        <v>0.1638038993497055</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2396710213545789</v>
+        <v>0.2442341361438792</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>88</v>
@@ -2916,19 +2916,19 @@
         <v>50517</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>40635</v>
+        <v>40445</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>60947</v>
+        <v>60446</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1100630594307485</v>
+        <v>0.1100630594307484</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08853353127936364</v>
+        <v>0.08811877976119667</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1327877898727624</v>
+        <v>0.1316956999801235</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>170</v>
@@ -2937,19 +2937,19 @@
         <v>111276</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>95321</v>
+        <v>95783</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>128257</v>
+        <v>127708</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1454844777303301</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1246241132491432</v>
+        <v>0.1252282955769122</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1676858068165613</v>
+        <v>0.1669675162468486</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>128695</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>114912</v>
+        <v>115320</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>143551</v>
+        <v>144622</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.4207261224901862</v>
+        <v>0.4207261224901861</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.3756678351851878</v>
+        <v>0.3770027158467372</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4692939749060724</v>
+        <v>0.472795036691574</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>305</v>
@@ -2987,19 +2987,19 @@
         <v>168755</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>153908</v>
+        <v>152704</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>184846</v>
+        <v>184001</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3676741562553224</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3353249043476259</v>
+        <v>0.3327023902392525</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4027322033559552</v>
+        <v>0.4008906941012189</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>491</v>
@@ -3008,19 +3008,19 @@
         <v>297450</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>276025</v>
+        <v>277346</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>320209</v>
+        <v>316608</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3888907740416255</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3608802681235715</v>
+        <v>0.3626062539596303</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.4186472825367986</v>
+        <v>0.413938407717953</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>85911</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>72544</v>
+        <v>72131</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>97325</v>
+        <v>99920</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2808585101900939</v>
+        <v>0.2808585101900938</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2371582261667969</v>
+        <v>0.2358092350850701</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3181723429263878</v>
+        <v>0.3266566994100818</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>308</v>
@@ -3058,19 +3058,19 @@
         <v>155706</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>140766</v>
+        <v>141633</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>171333</v>
+        <v>172149</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3392434500705309</v>
+        <v>0.3392434500705308</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3066918138697267</v>
+        <v>0.3085820524240012</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3732902911743783</v>
+        <v>0.3750668398957044</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>442</v>
@@ -3079,19 +3079,19 @@
         <v>241617</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>221877</v>
+        <v>223399</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>259811</v>
+        <v>261679</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3158940618794203</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2900863759305687</v>
+        <v>0.2920755403451179</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3396818174077508</v>
+        <v>0.3421238577622954</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>30522</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>23486</v>
+        <v>22816</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>40335</v>
+        <v>39706</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09978136286145947</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07677883415072943</v>
+        <v>0.07459045273707883</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1318622303195152</v>
+        <v>0.1298049245640982</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>169</v>
@@ -3129,19 +3129,19 @@
         <v>84002</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>71957</v>
+        <v>72421</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>96039</v>
+        <v>97048</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1830193342433983</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1567749733068665</v>
+        <v>0.1577862090253271</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2092448798073633</v>
+        <v>0.2114428373614604</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>219</v>
@@ -3150,19 +3150,19 @@
         <v>114524</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>100984</v>
+        <v>98839</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>129769</v>
+        <v>128173</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1497306863486239</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1320281537421424</v>
+        <v>0.129224389452867</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1696619489107535</v>
+        <v>0.1675752921380707</v>
       </c>
     </row>
     <row r="38">
@@ -3254,19 +3254,19 @@
         <v>1439562</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1372674</v>
+        <v>1372309</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1501428</v>
+        <v>1508001</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.4083214679014763</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3893490783238654</v>
+        <v>0.3892456551596242</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.4258694775380336</v>
+        <v>0.4277337714420762</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1424</v>
@@ -3275,19 +3275,19 @@
         <v>1160413</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>1112482</v>
+        <v>1107499</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1212982</v>
+        <v>1211711</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.3115595766527253</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2986906812948444</v>
+        <v>0.2973526594479722</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3256738001798118</v>
+        <v>0.3253325472636693</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2613</v>
@@ -3296,19 +3296,19 @@
         <v>2599975</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2515895</v>
+        <v>2524176</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2687246</v>
+        <v>2692245</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3586127722692095</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3470157002755201</v>
+        <v>0.3481578668851063</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.370649952336301</v>
+        <v>0.3713395935690174</v>
       </c>
     </row>
     <row r="40">
@@ -3325,19 +3325,19 @@
         <v>1391037</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1328471</v>
+        <v>1327545</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1457214</v>
+        <v>1455476</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.3945577889223278</v>
+        <v>0.3945577889223277</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3768112636213332</v>
+        <v>0.3765488265750139</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4133283328754167</v>
+        <v>0.4128353444573197</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2255</v>
@@ -3346,19 +3346,19 @@
         <v>1558579</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1503140</v>
+        <v>1499537</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1610952</v>
+        <v>1606800</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.4184633420675134</v>
+        <v>0.4184633420675133</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.4035785764054571</v>
+        <v>0.4026111338584195</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.4325249506841338</v>
+        <v>0.4314103549637242</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3634</v>
@@ -3367,19 +3367,19 @@
         <v>2949616</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2870538</v>
+        <v>2864628</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3032945</v>
+        <v>3029727</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.4068385933782902</v>
+        <v>0.4068385933782903</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3959313502288335</v>
+        <v>0.3951161750361589</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.4183320745251537</v>
+        <v>0.4178881816300186</v>
       </c>
     </row>
     <row r="41">
@@ -3396,19 +3396,19 @@
         <v>551409</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>510276</v>
+        <v>511233</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>594890</v>
+        <v>599176</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1564031376225111</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1447361480634096</v>
+        <v>0.1450074753209281</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1687363308511393</v>
+        <v>0.1699519224124836</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1261</v>
@@ -3417,19 +3417,19 @@
         <v>763939</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>720446</v>
+        <v>722660</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>804452</v>
+        <v>805904</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.2051103154814824</v>
+        <v>0.2051103154814823</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1934326980703479</v>
+        <v>0.1940273407640667</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2159876128915071</v>
+        <v>0.2163774684481026</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1902</v>
@@ -3438,19 +3438,19 @@
         <v>1315348</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1257073</v>
+        <v>1261239</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1371033</v>
+        <v>1386684</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.1814250780584835</v>
+        <v>0.1814250780584836</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1733872038220007</v>
+        <v>0.1739618662877884</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1891056068059483</v>
+        <v>0.1912644202771914</v>
       </c>
     </row>
     <row r="42">
@@ -3467,19 +3467,19 @@
         <v>143552</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>121325</v>
+        <v>121158</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>170703</v>
+        <v>168288</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.04071760555368477</v>
+        <v>0.04071760555368476</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.03441299976913234</v>
+        <v>0.03436567427737906</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0484187958333169</v>
+        <v>0.04773370078611945</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>405</v>
@@ -3488,19 +3488,19 @@
         <v>241598</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>219866</v>
+        <v>219519</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>267913</v>
+        <v>266571</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.06486676579827901</v>
+        <v>0.06486676579827899</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05903189739390441</v>
+        <v>0.05893881515959101</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07193194835488186</v>
+        <v>0.07157178311728875</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>562</v>
@@ -3509,19 +3509,19 @@
         <v>385151</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>354220</v>
+        <v>351563</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>421772</v>
+        <v>419322</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.05312355629401683</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04885729742260182</v>
+        <v>0.04849084017478707</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.05817466004116401</v>
+        <v>0.05783675221518154</v>
       </c>
     </row>
     <row r="43">
